--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40BE474-B063-44B1-B277-6F1DD8191C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.12.分散処理" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.12.分散処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.12.分散処理'!$A$1:$AI$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.12.分散処理'!$A$1:$AI$36</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.12.分散処理'!$A$1:$AI$22</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.12.分散処理'!$A$1:$AI$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -325,13 +337,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メール送信</t>
-    <rPh sb="3" eb="5">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pgpool-Ⅱを利用し、複数台のDBサーバに対して負荷分散を行う。</t>
     <rPh sb="9" eb="11">
       <t>リヨウ</t>
@@ -518,35 +523,6 @@
     <rPh sb="30" eb="32">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール送信用の常駐バッチを複数台のサーバに配置し、優先度に応じて、</t>
-    <rPh sb="3" eb="6">
-      <t>ソウシンヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分散して処理を行う。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -563,7 +539,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -993,15 +969,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1313,11 +1292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI249"/>
+  <dimension ref="A1:AI247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1349,7 +1328,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1852,7 +1831,7 @@
       <c r="M22" s="45"/>
       <c r="N22" s="47"/>
       <c r="O22" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -1886,7 +1865,7 @@
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -1922,7 +1901,7 @@
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
       <c r="O24" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" s="40"/>
       <c r="Q24" s="40"/>
@@ -1956,7 +1935,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
       <c r="O25" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
@@ -2014,7 +1993,7 @@
     </row>
     <row r="27" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -2022,13 +2001,13 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
       <c r="O27" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
@@ -2062,7 +2041,7 @@
       <c r="M28" s="43"/>
       <c r="N28" s="44"/>
       <c r="O28" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
@@ -2098,7 +2077,7 @@
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
       <c r="O29" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
@@ -2132,7 +2111,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="44"/>
       <c r="O30" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
@@ -2156,7 +2135,7 @@
     </row>
     <row r="31" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -2164,13 +2143,13 @@
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
       <c r="N31" s="47"/>
       <c r="O31" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
@@ -2204,7 +2183,7 @@
       <c r="M32" s="43"/>
       <c r="N32" s="44"/>
       <c r="O32" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
@@ -2228,7 +2207,7 @@
     </row>
     <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -2280,7 +2259,7 @@
       <c r="M34" s="43"/>
       <c r="N34" s="44"/>
       <c r="O34" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
@@ -2302,77 +2281,13 @@
       <c r="AG34" s="43"/>
       <c r="AH34" s="44"/>
     </row>
-    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="41"/>
-    </row>
-    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="44"/>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="17"/>
+      <c r="AF35" s="17"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="17"/>
+      <c r="AF36" s="17"/>
     </row>
     <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD37" s="17"/>
@@ -2434,25 +2349,23 @@
       <c r="AD51" s="17"/>
       <c r="AF51" s="17"/>
     </row>
-    <row r="52" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD52" s="17"/>
       <c r="AF52" s="17"/>
     </row>
-    <row r="53" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD53" s="17"/>
       <c r="AF53" s="17"/>
     </row>
-    <row r="54" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD54" s="17"/>
       <c r="AF54" s="17"/>
     </row>
     <row r="55" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD55" s="17"/>
-      <c r="AF55" s="17"/>
+      <c r="AE55" s="17"/>
     </row>
     <row r="56" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD56" s="17"/>
-      <c r="AF56" s="17"/>
+      <c r="AE56" s="17"/>
     </row>
     <row r="57" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE57" s="17"/>
@@ -2751,12 +2664,8 @@
     <row r="155" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE155" s="17"/>
     </row>
-    <row r="156" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE156" s="17"/>
-    </row>
-    <row r="157" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE157" s="17"/>
-    </row>
+    <row r="156" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2847,8 +2756,6 @@
     <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40BE474-B063-44B1-B277-6F1DD8191C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A42D7-91C9-40F5-A702-A21166960EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンピュータが提供するサービスを、複数の機能に分け、複数台のコンピュータに振り割る。</t>
-  </si>
-  <si>
     <t>一機能に起因するサービス停止や処理遅延の影響範囲を狭める目的などに用いられる。</t>
     <rPh sb="0" eb="1">
       <t>イチ</t>
@@ -532,6 +529,16 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンピュータが提供するサービスを、複数の機能に分け、複数台のコンピュータに割り振る。</t>
+    <rPh sb="37" eb="38">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1328,7 +1335,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1518,7 +1525,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -1526,7 +1533,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -1562,7 +1569,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1600,7 +1607,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -1636,7 +1643,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -1674,7 +1681,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="24" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -1710,7 +1717,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -1779,7 +1786,7 @@
     </row>
     <row r="21" spans="2:34" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -1817,7 +1824,7 @@
     </row>
     <row r="22" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -1825,13 +1832,13 @@
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="47"/>
       <c r="O22" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -1865,7 +1872,7 @@
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -1901,7 +1908,7 @@
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
       <c r="O24" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P24" s="40"/>
       <c r="Q24" s="40"/>
@@ -1935,7 +1942,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
       <c r="O25" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
@@ -1969,7 +1976,7 @@
       <c r="M26" s="43"/>
       <c r="N26" s="44"/>
       <c r="O26" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
@@ -1993,7 +2000,7 @@
     </row>
     <row r="27" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -2001,13 +2008,13 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
       <c r="O27" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
@@ -2041,7 +2048,7 @@
       <c r="M28" s="43"/>
       <c r="N28" s="44"/>
       <c r="O28" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
@@ -2077,7 +2084,7 @@
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
       <c r="O29" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
@@ -2111,7 +2118,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="44"/>
       <c r="O30" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
@@ -2135,7 +2142,7 @@
     </row>
     <row r="31" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -2143,13 +2150,13 @@
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
       <c r="N31" s="47"/>
       <c r="O31" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
@@ -2183,7 +2190,7 @@
       <c r="M32" s="43"/>
       <c r="N32" s="44"/>
       <c r="O32" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
@@ -2207,7 +2214,7 @@
     </row>
     <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -2221,7 +2228,7 @@
       <c r="M33" s="43"/>
       <c r="N33" s="44"/>
       <c r="O33" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -2245,7 +2252,7 @@
     </row>
     <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -2253,13 +2260,13 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
       <c r="N34" s="44"/>
       <c r="O34" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A42D7-91C9-40F5-A702-A21166960EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2673A-C749-45F0-BD5B-42CD17566F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,22 +477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1台のアプリケーションサーバで処理を行う。。</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>縮退時に備え、他アプリケーションサーバにも配置する</t>
-  </si>
-  <si>
     <t>可用性を高めるため、ロードバランサにて複数台のアプリケーションサーバに</t>
     <rPh sb="19" eb="21">
       <t>フクスウ</t>
@@ -540,6 +524,23 @@
     <rPh sb="39" eb="40">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1台のアプリケーションサーバで処理を行う。</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縮退時に備え、他アプリケーションサーバにも配置する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1681,7 +1682,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -1838,7 +1839,7 @@
       <c r="M22" s="45"/>
       <c r="N22" s="47"/>
       <c r="O22" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -1872,7 +1873,7 @@
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -1942,7 +1943,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
       <c r="O25" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
@@ -2156,7 +2157,7 @@
       <c r="M31" s="45"/>
       <c r="N31" s="47"/>
       <c r="O31" s="45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
@@ -2190,7 +2191,7 @@
       <c r="M32" s="43"/>
       <c r="N32" s="44"/>
       <c r="O32" s="43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.12分散処理方式.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2673A-C749-45F0-BD5B-42CD17566F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.12.分散処理" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.12.分散処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.12.分散処理'!$A$1:$AI$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.12.分散処理'!$A$1:$AI$36</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.12.分散処理'!$A$1:$AI$22</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.12.分散処理'!$A$1:$AI$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -125,9 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンピュータが提供するサービスを、複数の機能に分け、複数台のコンピュータに振り割る。</t>
-  </si>
-  <si>
     <t>一機能に起因するサービス停止や処理遅延の影響範囲を狭める目的などに用いられる。</t>
     <rPh sb="0" eb="1">
       <t>イチ</t>
@@ -325,13 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メール送信</t>
-    <rPh sb="3" eb="5">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pgpool-Ⅱを利用し、複数台のDBサーバに対して負荷分散を行う。</t>
     <rPh sb="9" eb="11">
       <t>リヨウ</t>
@@ -475,22 +477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1台のアプリケーションサーバで処理を行う。。</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>縮退時に備え、他アプリケーションサーバにも配置する</t>
-  </si>
-  <si>
     <t>可用性を高めるため、ロードバランサにて複数台のアプリケーションサーバに</t>
     <rPh sb="19" eb="21">
       <t>フクスウ</t>
@@ -521,35 +507,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メール送信用の常駐バッチを複数台のサーバに配置し、優先度に応じて、</t>
-    <rPh sb="3" eb="6">
-      <t>ソウシンヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分散して処理を行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>REST送信処理</t>
     <rPh sb="4" eb="6">
       <t>ソウシン</t>
@@ -557,13 +514,40 @@
     <rPh sb="6" eb="8">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンピュータが提供するサービスを、複数の機能に分け、複数台のコンピュータに割り振る。</t>
+    <rPh sb="37" eb="38">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1台のアプリケーションサーバで処理を行う。</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縮退時に備え、他アプリケーションサーバにも配置する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -993,15 +977,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1313,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI249"/>
+  <dimension ref="A1:AI247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1349,7 +1336,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1539,7 +1526,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -1547,7 +1534,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -1583,7 +1570,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1621,7 +1608,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -1657,7 +1644,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -1695,7 +1682,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="24" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -1731,7 +1718,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -1800,7 +1787,7 @@
     </row>
     <row r="21" spans="2:34" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -1838,7 +1825,7 @@
     </row>
     <row r="22" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -1846,13 +1833,13 @@
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="47"/>
       <c r="O22" s="45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -1886,7 +1873,7 @@
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -1922,7 +1909,7 @@
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
       <c r="O24" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P24" s="40"/>
       <c r="Q24" s="40"/>
@@ -1956,7 +1943,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
       <c r="O25" s="40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
@@ -1990,7 +1977,7 @@
       <c r="M26" s="43"/>
       <c r="N26" s="44"/>
       <c r="O26" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
@@ -2014,7 +2001,7 @@
     </row>
     <row r="27" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -2022,13 +2009,13 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
       <c r="O27" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
@@ -2062,7 +2049,7 @@
       <c r="M28" s="43"/>
       <c r="N28" s="44"/>
       <c r="O28" s="43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
@@ -2098,7 +2085,7 @@
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
       <c r="O29" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
@@ -2132,7 +2119,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="44"/>
       <c r="O30" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
@@ -2156,7 +2143,7 @@
     </row>
     <row r="31" spans="2:34" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -2164,13 +2151,13 @@
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
       <c r="N31" s="47"/>
       <c r="O31" s="45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
@@ -2204,7 +2191,7 @@
       <c r="M32" s="43"/>
       <c r="N32" s="44"/>
       <c r="O32" s="43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
@@ -2228,7 +2215,7 @@
     </row>
     <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -2242,7 +2229,7 @@
       <c r="M33" s="43"/>
       <c r="N33" s="44"/>
       <c r="O33" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -2266,7 +2253,7 @@
     </row>
     <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -2274,13 +2261,13 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
       <c r="N34" s="44"/>
       <c r="O34" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
@@ -2302,77 +2289,13 @@
       <c r="AG34" s="43"/>
       <c r="AH34" s="44"/>
     </row>
-    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="41"/>
-    </row>
-    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="44"/>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="17"/>
+      <c r="AF35" s="17"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="17"/>
+      <c r="AF36" s="17"/>
     </row>
     <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD37" s="17"/>
@@ -2434,25 +2357,23 @@
       <c r="AD51" s="17"/>
       <c r="AF51" s="17"/>
     </row>
-    <row r="52" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD52" s="17"/>
       <c r="AF52" s="17"/>
     </row>
-    <row r="53" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD53" s="17"/>
       <c r="AF53" s="17"/>
     </row>
-    <row r="54" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD54" s="17"/>
       <c r="AF54" s="17"/>
     </row>
     <row r="55" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD55" s="17"/>
-      <c r="AF55" s="17"/>
+      <c r="AE55" s="17"/>
     </row>
     <row r="56" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD56" s="17"/>
-      <c r="AF56" s="17"/>
+      <c r="AE56" s="17"/>
     </row>
     <row r="57" spans="30:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE57" s="17"/>
@@ -2751,12 +2672,8 @@
     <row r="155" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE155" s="17"/>
     </row>
-    <row r="156" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE156" s="17"/>
-    </row>
-    <row r="157" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE157" s="17"/>
-    </row>
+    <row r="156" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="31:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2847,8 +2764,6 @@
     <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
